--- a/Exemplo Cronograma.xlsx
+++ b/Exemplo Cronograma.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E492D6-13D5-4D51-9065-972070AEE75B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320FB1A-0C51-4D9B-BEB2-793B874DC86A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Tarefas</t>
   </si>
@@ -90,13 +90,16 @@
   </si>
   <si>
     <t>Desenvolvimento das PCBs</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Relatório PAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +153,13 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -355,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -427,6 +437,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,15 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -458,17 +479,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AP15"/>
+  <dimension ref="B1:AP16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AP15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,167 +846,167 @@
   <sheetData>
     <row r="1" spans="2:42" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="42">
         <v>2020</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="50">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="42">
         <v>2021</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="52"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="44"/>
     </row>
     <row r="3" spans="2:42" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="50" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="50" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="52"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
     </row>
     <row r="4" spans="2:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="41" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="41" t="s">
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="41" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="41" t="s">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="42" t="s">
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="41" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="42" t="s">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="41" t="s">
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="41" t="s">
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="54"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="39"/>
     </row>
     <row r="5" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1021,9 +1039,9 @@
       <c r="AA5" s="32"/>
       <c r="AB5" s="29"/>
       <c r="AC5" s="30"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="4"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="29"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="15"/>
@@ -1066,9 +1084,9 @@
       <c r="AA6" s="32"/>
       <c r="AB6" s="29"/>
       <c r="AC6" s="30"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="4"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="29"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="15"/>
@@ -1108,12 +1126,12 @@
       <c r="X7" s="29"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="21"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="4"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="17"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="15"/>
@@ -1156,9 +1174,9 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="29"/>
       <c r="AC8" s="30"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="4"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="29"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="15"/>
@@ -1201,9 +1219,9 @@
       <c r="AA9" s="32"/>
       <c r="AB9" s="29"/>
       <c r="AC9" s="30"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="4"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="29"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="15"/>
@@ -1246,9 +1264,9 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="29"/>
       <c r="AC10" s="30"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="4"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="29"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="15"/>
@@ -1260,14 +1278,14 @@
       <c r="AO10" s="11"/>
       <c r="AP10" s="12"/>
     </row>
-    <row r="11" spans="2:42" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -1281,19 +1299,19 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="25"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="15"/>
@@ -1305,43 +1323,101 @@
       <c r="AO11" s="11"/>
       <c r="AP11" s="12"/>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+    <row r="12" spans="2:42" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="12"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="37" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="V15" s="24"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="V16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="S2:AP2"/>
+    <mergeCell ref="S3:AD3"/>
+    <mergeCell ref="AE3:AP3"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C2:R2"/>
     <mergeCell ref="AI4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
     <mergeCell ref="K4:N4"/>
@@ -1350,19 +1426,6 @@
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="S2:AP2"/>
-    <mergeCell ref="S3:AD3"/>
-    <mergeCell ref="AE3:AP3"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Exemplo Cronograma.xlsx
+++ b/Exemplo Cronograma.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320FB1A-0C51-4D9B-BEB2-793B874DC86A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D13B51-0B9D-4EBE-AFE2-D896C3FF0136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tarefas</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">3º Periodo </t>
   </si>
   <si>
-    <t>Ferias</t>
-  </si>
-  <si>
     <t>Covid-19</t>
   </si>
   <si>
@@ -93,6 +90,15 @@
   </si>
   <si>
     <t>Desenvolvimento do Relatório PAP</t>
+  </si>
+  <si>
+    <t>Esquema e criação de modelo 3D</t>
+  </si>
+  <si>
+    <t>JUL.</t>
+  </si>
+  <si>
+    <t>Ferias/Estágio</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -361,11 +367,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -437,37 +519,34 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -479,14 +558,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,187 +930,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AP16"/>
+  <dimension ref="B1:AT17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ8" sqref="AZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="42" width="2.7109375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="46" width="2.7109375" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="2:46" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="54">
         <v>2020</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="42">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="54">
         <v>2021</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="44"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="56"/>
     </row>
-    <row r="3" spans="2:42" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="42" t="s">
+    <row r="3" spans="2:46" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44"/>
+      <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="42" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="42" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="65"/>
     </row>
-    <row r="4" spans="2:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="37" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="37" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="37" t="s">
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="40" t="s">
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="62"/>
     </row>
-    <row r="5" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -1045,17 +1159,21 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="15"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="10"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="4"/>
       <c r="AO5" s="11"/>
       <c r="AP5" s="12"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="14"/>
     </row>
-    <row r="6" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4"/>
@@ -1090,17 +1208,21 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="15"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="10"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="4"/>
       <c r="AO6" s="11"/>
       <c r="AP6" s="12"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="14"/>
     </row>
-    <row r="7" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="4"/>
@@ -1132,20 +1254,24 @@
       <c r="AD7" s="19"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="17"/>
-      <c r="AG7" s="5"/>
+      <c r="AG7" s="18"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="15"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="10"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="4"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="12"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="14"/>
     </row>
-    <row r="8" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="4"/>
@@ -1177,20 +1303,24 @@
       <c r="AD8" s="12"/>
       <c r="AE8" s="28"/>
       <c r="AF8" s="29"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="6"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="21"/>
       <c r="AI8" s="15"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="10"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="4"/>
       <c r="AO8" s="11"/>
       <c r="AP8" s="12"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="14"/>
     </row>
-    <row r="9" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="4"/>
@@ -1225,17 +1355,21 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="15"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="10"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="4"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="12"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="14"/>
     </row>
-    <row r="10" spans="2:42" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="4"/>
@@ -1267,20 +1401,24 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="28"/>
       <c r="AF10" s="29"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="10"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="66"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="12"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="14"/>
     </row>
-    <row r="11" spans="2:42" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="4"/>
@@ -1308,24 +1446,28 @@
       <c r="Z11" s="21"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="10"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="17"/>
       <c r="AO11" s="11"/>
       <c r="AP11" s="12"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="14"/>
     </row>
-    <row r="12" spans="2:42" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:46" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="4"/>
@@ -1357,67 +1499,116 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="29"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="10"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="4"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="12"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="14"/>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="53" t="s">
+    <row r="13" spans="2:46" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="14"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53" t="s">
+    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-    </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="V16" s="24"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="V17" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="S2:AP2"/>
-    <mergeCell ref="S3:AD3"/>
-    <mergeCell ref="AE3:AP3"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C2:R2"/>
+  <mergeCells count="22">
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="AE3:AT3"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="S2:AT2"/>
     <mergeCell ref="AI4:AL4"/>
     <mergeCell ref="AM4:AP4"/>
     <mergeCell ref="K4:N4"/>
@@ -1426,6 +1617,16 @@
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="S3:AD3"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
